--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FC3989-EB5D-43E9-BDF4-2742B2216152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7487A-7910-4D76-AFB4-EF184ADD99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1055"/>
+  <dimension ref="A1:I1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1046" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1055" sqref="H1055"/>
+      <selection pane="bottomRight" activeCell="K1062" sqref="K1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28021,6 +28021,33 @@
       <c r="H1055" s="3">
         <f>SUM(C1055:G1055)</f>
         <v>50726</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056" s="14">
+        <v>45676</v>
+      </c>
+      <c r="B1056" s="14">
+        <v>45682</v>
+      </c>
+      <c r="C1056" s="3">
+        <v>24948</v>
+      </c>
+      <c r="D1056" s="3">
+        <v>19901</v>
+      </c>
+      <c r="E1056" s="3">
+        <v>8515</v>
+      </c>
+      <c r="F1056" s="3">
+        <v>122</v>
+      </c>
+      <c r="G1056" s="3">
+        <v>779</v>
+      </c>
+      <c r="H1056" s="3">
+        <f>SUM(C1056:G1056)</f>
+        <v>54265</v>
       </c>
     </row>
   </sheetData>
@@ -28042,13 +28069,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1055"/>
+  <dimension ref="A1:H1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1047" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G1055" sqref="G1055"/>
+      <selection pane="bottomRight" activeCell="J1061" sqref="J1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55283,7 +55310,7 @@
         <v>5779</v>
       </c>
       <c r="H1054" s="3">
-        <f t="shared" ref="H1054:H1055" si="15">SUM(C1054:G1054)</f>
+        <f t="shared" ref="H1054:H1056" si="15">SUM(C1054:G1054)</f>
         <v>21512</v>
       </c>
     </row>
@@ -55312,6 +55339,33 @@
       <c r="H1055" s="3">
         <f t="shared" si="15"/>
         <v>13814</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056" s="14">
+        <v>45676</v>
+      </c>
+      <c r="B1056" s="14">
+        <v>45682</v>
+      </c>
+      <c r="C1056" s="3">
+        <v>1765</v>
+      </c>
+      <c r="D1056" s="3">
+        <v>1515</v>
+      </c>
+      <c r="E1056">
+        <v>78</v>
+      </c>
+      <c r="F1056" s="3">
+        <v>5057</v>
+      </c>
+      <c r="G1056" s="3">
+        <v>7184</v>
+      </c>
+      <c r="H1056" s="3">
+        <f t="shared" si="15"/>
+        <v>15599</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7487A-7910-4D76-AFB4-EF184ADD99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769E649-7749-40AC-8213-588BB800535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1056"/>
+  <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1046" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1049" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K1062" sqref="K1062"/>
+      <selection pane="bottomRight" activeCell="H1057" sqref="H1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28048,6 +28048,33 @@
       <c r="H1056" s="3">
         <f>SUM(C1056:G1056)</f>
         <v>54265</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1057" s="14">
+        <v>45683</v>
+      </c>
+      <c r="B1057" s="14">
+        <v>45689</v>
+      </c>
+      <c r="C1057" s="3">
+        <v>28880</v>
+      </c>
+      <c r="D1057" s="3">
+        <v>17537</v>
+      </c>
+      <c r="E1057" s="3">
+        <v>6187</v>
+      </c>
+      <c r="F1057" s="3">
+        <v>73</v>
+      </c>
+      <c r="G1057" s="3">
+        <v>602</v>
+      </c>
+      <c r="H1057" s="3">
+        <f>SUM(C1057:G1057)</f>
+        <v>53279</v>
       </c>
     </row>
   </sheetData>
@@ -28069,13 +28096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1056"/>
+  <dimension ref="A1:H1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1047" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1050" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1061" sqref="J1061"/>
+      <selection pane="bottomRight" activeCell="H1057" sqref="H1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55366,6 +55393,33 @@
       <c r="H1056" s="3">
         <f t="shared" si="15"/>
         <v>15599</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1057" s="14">
+        <v>45683</v>
+      </c>
+      <c r="B1057" s="14">
+        <v>45689</v>
+      </c>
+      <c r="C1057" s="3">
+        <v>1116</v>
+      </c>
+      <c r="D1057" s="3">
+        <v>3025</v>
+      </c>
+      <c r="E1057">
+        <v>87</v>
+      </c>
+      <c r="F1057" s="3">
+        <v>8505</v>
+      </c>
+      <c r="G1057" s="3">
+        <v>7709</v>
+      </c>
+      <c r="H1057" s="3">
+        <f t="shared" ref="H1057" si="16">SUM(C1057:G1057)</f>
+        <v>20442</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769E649-7749-40AC-8213-588BB800535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EECCD76-CA7E-4386-B563-E4E1BFA25C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1057"/>
+  <dimension ref="A1:I1059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1049" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1052" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1057" sqref="H1057"/>
+      <selection pane="bottomRight" activeCell="I1059" sqref="I1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28075,6 +28075,60 @@
       <c r="H1057" s="3">
         <f>SUM(C1057:G1057)</f>
         <v>53279</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1058" s="14">
+        <v>45690</v>
+      </c>
+      <c r="B1058" s="14">
+        <v>45696</v>
+      </c>
+      <c r="C1058" s="3">
+        <v>28410</v>
+      </c>
+      <c r="D1058" s="3">
+        <v>18150</v>
+      </c>
+      <c r="E1058" s="3">
+        <v>7092</v>
+      </c>
+      <c r="F1058" s="3">
+        <v>109</v>
+      </c>
+      <c r="G1058" s="3">
+        <v>624</v>
+      </c>
+      <c r="H1058" s="3">
+        <f>SUM(C1058:G1058)</f>
+        <v>54385</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1059" s="14">
+        <v>45697</v>
+      </c>
+      <c r="B1059" s="14">
+        <v>45703</v>
+      </c>
+      <c r="C1059" s="3">
+        <v>26570</v>
+      </c>
+      <c r="D1059" s="3">
+        <v>16934</v>
+      </c>
+      <c r="E1059" s="3">
+        <v>6781</v>
+      </c>
+      <c r="F1059" s="3">
+        <v>97</v>
+      </c>
+      <c r="G1059" s="3">
+        <v>861</v>
+      </c>
+      <c r="H1059" s="3">
+        <f>SUM(C1059:G1059)</f>
+        <v>51243</v>
       </c>
     </row>
   </sheetData>
@@ -28096,13 +28150,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1057"/>
+  <dimension ref="A1:H1059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1050" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1053" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1057" sqref="H1057"/>
+      <selection pane="bottomRight" activeCell="I1059" sqref="I1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55418,8 +55472,62 @@
         <v>7709</v>
       </c>
       <c r="H1057" s="3">
-        <f t="shared" ref="H1057" si="16">SUM(C1057:G1057)</f>
+        <f t="shared" ref="H1057:H1059" si="16">SUM(C1057:G1057)</f>
         <v>20442</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1058" s="14">
+        <v>45690</v>
+      </c>
+      <c r="B1058" s="14">
+        <v>45696</v>
+      </c>
+      <c r="C1058" s="3">
+        <v>381</v>
+      </c>
+      <c r="D1058" s="3">
+        <v>268</v>
+      </c>
+      <c r="E1058">
+        <v>12</v>
+      </c>
+      <c r="F1058" s="3">
+        <v>3357</v>
+      </c>
+      <c r="G1058" s="3">
+        <v>3528</v>
+      </c>
+      <c r="H1058" s="3">
+        <f t="shared" si="16"/>
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1059" s="14">
+        <v>45697</v>
+      </c>
+      <c r="B1059" s="14">
+        <v>45703</v>
+      </c>
+      <c r="C1059" s="3">
+        <v>389</v>
+      </c>
+      <c r="D1059" s="3">
+        <v>756</v>
+      </c>
+      <c r="E1059">
+        <v>62</v>
+      </c>
+      <c r="F1059" s="3">
+        <v>6096</v>
+      </c>
+      <c r="G1059" s="3">
+        <v>3708</v>
+      </c>
+      <c r="H1059" s="3">
+        <f t="shared" si="16"/>
+        <v>11011</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EECCD76-CA7E-4386-B563-E4E1BFA25C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD64B8D-517B-4DDB-ACB0-1F577DB44B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1059"/>
+  <dimension ref="A1:I1060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1052" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1059" sqref="I1059"/>
+      <selection pane="bottomRight" activeCell="H1060" sqref="H1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27992,7 +27992,7 @@
         <v>725</v>
       </c>
       <c r="H1054" s="3">
-        <f>SUM(C1054:G1054)</f>
+        <f t="shared" ref="H1054:H1059" si="18">SUM(C1054:G1054)</f>
         <v>48086</v>
       </c>
     </row>
@@ -28019,7 +28019,7 @@
         <v>626</v>
       </c>
       <c r="H1055" s="3">
-        <f>SUM(C1055:G1055)</f>
+        <f t="shared" si="18"/>
         <v>50726</v>
       </c>
     </row>
@@ -28046,7 +28046,7 @@
         <v>779</v>
       </c>
       <c r="H1056" s="3">
-        <f>SUM(C1056:G1056)</f>
+        <f t="shared" si="18"/>
         <v>54265</v>
       </c>
     </row>
@@ -28073,7 +28073,7 @@
         <v>602</v>
       </c>
       <c r="H1057" s="3">
-        <f>SUM(C1057:G1057)</f>
+        <f t="shared" si="18"/>
         <v>53279</v>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
         <v>624</v>
       </c>
       <c r="H1058" s="3">
-        <f>SUM(C1058:G1058)</f>
+        <f t="shared" si="18"/>
         <v>54385</v>
       </c>
     </row>
@@ -28127,8 +28127,35 @@
         <v>861</v>
       </c>
       <c r="H1059" s="3">
-        <f>SUM(C1059:G1059)</f>
+        <f t="shared" si="18"/>
         <v>51243</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1060" s="14">
+        <v>45704</v>
+      </c>
+      <c r="B1060" s="14">
+        <v>45710</v>
+      </c>
+      <c r="C1060" s="3">
+        <v>20189</v>
+      </c>
+      <c r="D1060" s="3">
+        <v>17336</v>
+      </c>
+      <c r="E1060" s="3">
+        <v>7473</v>
+      </c>
+      <c r="F1060" s="3">
+        <v>52</v>
+      </c>
+      <c r="G1060" s="3">
+        <v>608</v>
+      </c>
+      <c r="H1060" s="3">
+        <f t="shared" ref="H1060" si="19">SUM(C1060:G1060)</f>
+        <v>45658</v>
       </c>
     </row>
   </sheetData>
@@ -28150,13 +28177,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1059"/>
+  <dimension ref="A1:H1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1053" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1059" sqref="I1059"/>
+      <selection pane="bottomRight" activeCell="H1060" sqref="H1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55528,6 +55555,33 @@
       <c r="H1059" s="3">
         <f t="shared" si="16"/>
         <v>11011</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1060" s="14">
+        <v>45704</v>
+      </c>
+      <c r="B1060" s="14">
+        <v>45710</v>
+      </c>
+      <c r="C1060" s="3">
+        <v>1461</v>
+      </c>
+      <c r="D1060" s="3">
+        <v>1712</v>
+      </c>
+      <c r="E1060">
+        <v>136</v>
+      </c>
+      <c r="F1060" s="3">
+        <v>9775</v>
+      </c>
+      <c r="G1060" s="3">
+        <v>8377</v>
+      </c>
+      <c r="H1060" s="3">
+        <f t="shared" ref="H1060" si="17">SUM(C1060:G1060)</f>
+        <v>21461</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD64B8D-517B-4DDB-ACB0-1F577DB44B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C18A42-DE73-4661-A11E-381B0143B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1060"/>
+  <dimension ref="A1:I1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1060" sqref="H1060"/>
+      <selection pane="bottomRight" activeCell="H1061" sqref="H1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28154,8 +28154,35 @@
         <v>608</v>
       </c>
       <c r="H1060" s="3">
-        <f t="shared" ref="H1060" si="19">SUM(C1060:G1060)</f>
+        <f t="shared" ref="H1060:H1061" si="19">SUM(C1060:G1060)</f>
         <v>45658</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1061" s="14">
+        <v>45711</v>
+      </c>
+      <c r="B1061" s="14">
+        <v>45717</v>
+      </c>
+      <c r="C1061" s="3">
+        <v>20447</v>
+      </c>
+      <c r="D1061" s="3">
+        <v>16779</v>
+      </c>
+      <c r="E1061" s="3">
+        <v>5802</v>
+      </c>
+      <c r="F1061" s="3">
+        <v>115</v>
+      </c>
+      <c r="G1061" s="3">
+        <v>546</v>
+      </c>
+      <c r="H1061" s="3">
+        <f t="shared" si="19"/>
+        <v>43689</v>
       </c>
     </row>
   </sheetData>
@@ -28177,13 +28204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1060"/>
+  <dimension ref="A1:H1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1060" sqref="H1060"/>
+      <selection pane="bottomRight" activeCell="I1061" sqref="I1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55580,8 +55607,35 @@
         <v>8377</v>
       </c>
       <c r="H1060" s="3">
-        <f t="shared" ref="H1060" si="17">SUM(C1060:G1060)</f>
+        <f t="shared" ref="H1060:H1061" si="17">SUM(C1060:G1060)</f>
         <v>21461</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1061" s="14">
+        <v>45711</v>
+      </c>
+      <c r="B1061" s="14">
+        <v>45717</v>
+      </c>
+      <c r="C1061" s="3">
+        <v>710</v>
+      </c>
+      <c r="D1061" s="3">
+        <v>1317</v>
+      </c>
+      <c r="E1061">
+        <v>273</v>
+      </c>
+      <c r="F1061" s="3">
+        <v>8193</v>
+      </c>
+      <c r="G1061" s="3">
+        <v>7863</v>
+      </c>
+      <c r="H1061" s="3">
+        <f t="shared" si="17"/>
+        <v>18356</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C18A42-DE73-4661-A11E-381B0143B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236874AC-91CA-40A4-B793-39FED771A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1061"/>
+  <dimension ref="A1:I1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1061" sqref="H1061"/>
+      <selection pane="bottomRight" activeCell="H1062" sqref="H1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28154,7 +28154,7 @@
         <v>608</v>
       </c>
       <c r="H1060" s="3">
-        <f t="shared" ref="H1060:H1061" si="19">SUM(C1060:G1060)</f>
+        <f t="shared" ref="H1060:H1062" si="19">SUM(C1060:G1060)</f>
         <v>45658</v>
       </c>
     </row>
@@ -28183,6 +28183,33 @@
       <c r="H1061" s="3">
         <f t="shared" si="19"/>
         <v>43689</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1062" s="14">
+        <v>45718</v>
+      </c>
+      <c r="B1062" s="14">
+        <v>45724</v>
+      </c>
+      <c r="C1062" s="3">
+        <v>18392</v>
+      </c>
+      <c r="D1062" s="3">
+        <v>13157</v>
+      </c>
+      <c r="E1062" s="3">
+        <v>6057</v>
+      </c>
+      <c r="F1062" s="3">
+        <v>171</v>
+      </c>
+      <c r="G1062" s="3">
+        <v>535</v>
+      </c>
+      <c r="H1062" s="3">
+        <f t="shared" si="19"/>
+        <v>38312</v>
       </c>
     </row>
   </sheetData>
@@ -28204,13 +28231,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1061"/>
+  <dimension ref="A1:H1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1061" sqref="I1061"/>
+      <selection pane="bottomRight" activeCell="I1062" sqref="I1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55607,7 +55634,7 @@
         <v>8377</v>
       </c>
       <c r="H1060" s="3">
-        <f t="shared" ref="H1060:H1061" si="17">SUM(C1060:G1060)</f>
+        <f t="shared" ref="H1060:H1062" si="17">SUM(C1060:G1060)</f>
         <v>21461</v>
       </c>
     </row>
@@ -55636,6 +55663,33 @@
       <c r="H1061" s="3">
         <f t="shared" si="17"/>
         <v>18356</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1062" s="14">
+        <v>45718</v>
+      </c>
+      <c r="B1062" s="14">
+        <v>45724</v>
+      </c>
+      <c r="C1062" s="3">
+        <v>425</v>
+      </c>
+      <c r="D1062" s="3">
+        <v>684</v>
+      </c>
+      <c r="E1062">
+        <v>118</v>
+      </c>
+      <c r="F1062" s="3">
+        <v>3730</v>
+      </c>
+      <c r="G1062" s="3">
+        <v>3929</v>
+      </c>
+      <c r="H1062" s="3">
+        <f t="shared" si="17"/>
+        <v>8886</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236874AC-91CA-40A4-B793-39FED771A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC739A96-B916-4704-B119-37074351F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1062"/>
+  <dimension ref="A1:I1063"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1062" sqref="H1062"/>
+      <selection pane="bottomRight" activeCell="H1063" sqref="H1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28210,6 +28210,33 @@
       <c r="H1062" s="3">
         <f t="shared" si="19"/>
         <v>38312</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1063" s="14">
+        <v>45725</v>
+      </c>
+      <c r="B1063" s="14">
+        <v>45731</v>
+      </c>
+      <c r="C1063" s="3">
+        <v>22837</v>
+      </c>
+      <c r="D1063" s="3">
+        <v>14866</v>
+      </c>
+      <c r="E1063" s="3">
+        <v>7299</v>
+      </c>
+      <c r="F1063" s="3">
+        <v>62</v>
+      </c>
+      <c r="G1063" s="3">
+        <v>739</v>
+      </c>
+      <c r="H1063" s="3">
+        <f t="shared" ref="H1063" si="20">SUM(C1063:G1063)</f>
+        <v>45803</v>
       </c>
     </row>
   </sheetData>
@@ -28231,13 +28258,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1062"/>
+  <dimension ref="A1:H1063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1056" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1059" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1062" sqref="I1062"/>
+      <selection pane="bottomRight" activeCell="I1063" sqref="I1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55690,6 +55717,33 @@
       <c r="H1062" s="3">
         <f t="shared" si="17"/>
         <v>8886</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1063" s="14">
+        <v>45725</v>
+      </c>
+      <c r="B1063" s="14">
+        <v>45731</v>
+      </c>
+      <c r="C1063" s="3">
+        <v>521</v>
+      </c>
+      <c r="D1063" s="3">
+        <v>1092</v>
+      </c>
+      <c r="E1063">
+        <v>36</v>
+      </c>
+      <c r="F1063" s="3">
+        <v>4098</v>
+      </c>
+      <c r="G1063" s="3">
+        <v>4075</v>
+      </c>
+      <c r="H1063" s="3">
+        <f t="shared" ref="H1063" si="18">SUM(C1063:G1063)</f>
+        <v>9822</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC739A96-B916-4704-B119-37074351F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D2E46-49C4-468F-BF07-1E70E5AD34E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1063"/>
+  <dimension ref="A1:I1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1063" sqref="H1063"/>
+      <selection pane="bottomRight" activeCell="J1064" sqref="J1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28235,8 +28235,35 @@
         <v>739</v>
       </c>
       <c r="H1063" s="3">
-        <f t="shared" ref="H1063" si="20">SUM(C1063:G1063)</f>
+        <f t="shared" ref="H1063:H1064" si="20">SUM(C1063:G1063)</f>
         <v>45803</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1064" s="14">
+        <v>45732</v>
+      </c>
+      <c r="B1064" s="14">
+        <v>45738</v>
+      </c>
+      <c r="C1064" s="3">
+        <v>22578</v>
+      </c>
+      <c r="D1064" s="3">
+        <v>15311</v>
+      </c>
+      <c r="E1064" s="3">
+        <v>7219</v>
+      </c>
+      <c r="F1064" s="3">
+        <v>69</v>
+      </c>
+      <c r="G1064" s="3">
+        <v>706</v>
+      </c>
+      <c r="H1064" s="3">
+        <f t="shared" si="20"/>
+        <v>45883</v>
       </c>
     </row>
   </sheetData>
@@ -28258,13 +28285,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1063"/>
+  <dimension ref="A1:H1064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1059" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1063" sqref="I1063"/>
+      <selection pane="bottomRight" activeCell="I1064" sqref="I1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55742,8 +55769,35 @@
         <v>4075</v>
       </c>
       <c r="H1063" s="3">
-        <f t="shared" ref="H1063" si="18">SUM(C1063:G1063)</f>
+        <f t="shared" ref="H1063:H1064" si="18">SUM(C1063:G1063)</f>
         <v>9822</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1064" s="14">
+        <v>45732</v>
+      </c>
+      <c r="B1064" s="14">
+        <v>45738</v>
+      </c>
+      <c r="C1064" s="3">
+        <v>1210</v>
+      </c>
+      <c r="D1064" s="3">
+        <v>942</v>
+      </c>
+      <c r="E1064">
+        <v>62</v>
+      </c>
+      <c r="F1064" s="3">
+        <v>5263</v>
+      </c>
+      <c r="G1064" s="3">
+        <v>3822</v>
+      </c>
+      <c r="H1064" s="3">
+        <f t="shared" si="18"/>
+        <v>11299</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D2E46-49C4-468F-BF07-1E70E5AD34E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251B924-0B9C-4793-B5BB-6A016BA8D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1064"/>
+  <dimension ref="A1:I1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1061" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1064" sqref="J1064"/>
+      <selection pane="bottomRight" activeCell="H1065" sqref="H1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28235,7 +28235,7 @@
         <v>739</v>
       </c>
       <c r="H1063" s="3">
-        <f t="shared" ref="H1063:H1064" si="20">SUM(C1063:G1063)</f>
+        <f t="shared" ref="H1063:H1065" si="20">SUM(C1063:G1063)</f>
         <v>45803</v>
       </c>
     </row>
@@ -28264,6 +28264,33 @@
       <c r="H1064" s="3">
         <f t="shared" si="20"/>
         <v>45883</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1065" s="14">
+        <v>45739</v>
+      </c>
+      <c r="B1065" s="14">
+        <v>45745</v>
+      </c>
+      <c r="C1065" s="3">
+        <v>23268</v>
+      </c>
+      <c r="D1065" s="3">
+        <v>17077</v>
+      </c>
+      <c r="E1065" s="3">
+        <v>5777</v>
+      </c>
+      <c r="F1065" s="3">
+        <v>126</v>
+      </c>
+      <c r="G1065" s="3">
+        <v>902</v>
+      </c>
+      <c r="H1065" s="3">
+        <f t="shared" si="20"/>
+        <v>47150</v>
       </c>
     </row>
   </sheetData>
@@ -28285,13 +28312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1064"/>
+  <dimension ref="A1:H1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1059" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1064" sqref="I1064"/>
+      <selection pane="bottomRight" activeCell="I1065" sqref="I1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55769,7 +55796,7 @@
         <v>4075</v>
       </c>
       <c r="H1063" s="3">
-        <f t="shared" ref="H1063:H1064" si="18">SUM(C1063:G1063)</f>
+        <f t="shared" ref="H1063:H1065" si="18">SUM(C1063:G1063)</f>
         <v>9822</v>
       </c>
     </row>
@@ -55798,6 +55825,33 @@
       <c r="H1064" s="3">
         <f t="shared" si="18"/>
         <v>11299</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1065" s="14">
+        <v>45739</v>
+      </c>
+      <c r="B1065" s="14">
+        <v>45745</v>
+      </c>
+      <c r="C1065" s="3">
+        <v>1099</v>
+      </c>
+      <c r="D1065" s="3">
+        <v>787</v>
+      </c>
+      <c r="E1065">
+        <v>25</v>
+      </c>
+      <c r="F1065" s="3">
+        <v>4681</v>
+      </c>
+      <c r="G1065" s="3">
+        <v>7363</v>
+      </c>
+      <c r="H1065" s="3">
+        <f t="shared" si="18"/>
+        <v>13955</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251B924-0B9C-4793-B5BB-6A016BA8D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064EDE50-FA58-41C8-B073-DFD8E8B26DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1065"/>
+  <dimension ref="A1:I1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1061" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1065" sqref="H1065"/>
+      <selection pane="bottomRight" activeCell="H1066" sqref="H1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28291,6 +28291,33 @@
       <c r="H1065" s="3">
         <f t="shared" si="20"/>
         <v>47150</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1066" s="14">
+        <v>45746</v>
+      </c>
+      <c r="B1066" s="14">
+        <v>45752</v>
+      </c>
+      <c r="C1066" s="3">
+        <v>25809</v>
+      </c>
+      <c r="D1066" s="3">
+        <v>16268</v>
+      </c>
+      <c r="E1066" s="3">
+        <v>5747</v>
+      </c>
+      <c r="F1066" s="3">
+        <v>143</v>
+      </c>
+      <c r="G1066" s="3">
+        <v>867</v>
+      </c>
+      <c r="H1066" s="3">
+        <f t="shared" ref="H1066" si="21">SUM(C1066:G1066)</f>
+        <v>48834</v>
       </c>
     </row>
   </sheetData>
@@ -28312,13 +28339,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1065"/>
+  <dimension ref="A1:H1066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1059" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1065" sqref="I1065"/>
+      <selection pane="bottomRight" activeCell="H1066" sqref="H1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55852,6 +55879,33 @@
       <c r="H1065" s="3">
         <f t="shared" si="18"/>
         <v>13955</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1066" s="14">
+        <v>45746</v>
+      </c>
+      <c r="B1066" s="14">
+        <v>45752</v>
+      </c>
+      <c r="C1066" s="3">
+        <v>537</v>
+      </c>
+      <c r="D1066" s="3">
+        <v>515</v>
+      </c>
+      <c r="E1066">
+        <v>37</v>
+      </c>
+      <c r="F1066" s="3">
+        <v>3510</v>
+      </c>
+      <c r="G1066" s="3">
+        <v>3405</v>
+      </c>
+      <c r="H1066" s="3">
+        <f t="shared" ref="H1066" si="19">SUM(C1066:G1066)</f>
+        <v>8004</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064EDE50-FA58-41C8-B073-DFD8E8B26DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB5E98-F81E-44E0-8875-562AE4F84E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1066"/>
+  <dimension ref="A1:I1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1061" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1066" sqref="H1066"/>
+      <selection pane="bottomRight" activeCell="H1067" sqref="H1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28316,8 +28316,35 @@
         <v>867</v>
       </c>
       <c r="H1066" s="3">
-        <f t="shared" ref="H1066" si="21">SUM(C1066:G1066)</f>
+        <f t="shared" ref="H1066:H1067" si="21">SUM(C1066:G1066)</f>
         <v>48834</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1067" s="14">
+        <v>45753</v>
+      </c>
+      <c r="B1067" s="14">
+        <v>45759</v>
+      </c>
+      <c r="C1067" s="3">
+        <v>22856</v>
+      </c>
+      <c r="D1067" s="3">
+        <v>18887</v>
+      </c>
+      <c r="E1067" s="3">
+        <v>6853</v>
+      </c>
+      <c r="F1067" s="3">
+        <v>89</v>
+      </c>
+      <c r="G1067" s="3">
+        <v>731</v>
+      </c>
+      <c r="H1067" s="3">
+        <f t="shared" si="21"/>
+        <v>49416</v>
       </c>
     </row>
   </sheetData>
@@ -28339,13 +28366,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1066"/>
+  <dimension ref="A1:H1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1059" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1062" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1066" sqref="H1066"/>
+      <selection pane="bottomRight" activeCell="H1067" sqref="H1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55904,8 +55931,35 @@
         <v>3405</v>
       </c>
       <c r="H1066" s="3">
-        <f t="shared" ref="H1066" si="19">SUM(C1066:G1066)</f>
+        <f t="shared" ref="H1066:H1067" si="19">SUM(C1066:G1066)</f>
         <v>8004</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1067" s="14">
+        <v>45753</v>
+      </c>
+      <c r="B1067" s="14">
+        <v>45759</v>
+      </c>
+      <c r="C1067" s="3">
+        <v>857</v>
+      </c>
+      <c r="D1067" s="3">
+        <v>214</v>
+      </c>
+      <c r="E1067">
+        <v>12</v>
+      </c>
+      <c r="F1067" s="3">
+        <v>2320</v>
+      </c>
+      <c r="G1067" s="3">
+        <v>2826</v>
+      </c>
+      <c r="H1067" s="3">
+        <f t="shared" si="19"/>
+        <v>6229</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB5E98-F81E-44E0-8875-562AE4F84E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC7F5B-66D7-4E08-8866-40CCA76BB123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1067"/>
+  <dimension ref="A1:I1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1061" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1067" sqref="H1067"/>
+      <selection pane="bottomRight" activeCell="I1065" sqref="I1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28316,7 +28316,7 @@
         <v>867</v>
       </c>
       <c r="H1066" s="3">
-        <f t="shared" ref="H1066:H1067" si="21">SUM(C1066:G1066)</f>
+        <f t="shared" ref="H1066:H1068" si="21">SUM(C1066:G1066)</f>
         <v>48834</v>
       </c>
     </row>
@@ -28345,6 +28345,33 @@
       <c r="H1067" s="3">
         <f t="shared" si="21"/>
         <v>49416</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1068" s="14">
+        <v>45760</v>
+      </c>
+      <c r="B1068" s="14">
+        <v>45766</v>
+      </c>
+      <c r="C1068" s="3">
+        <v>20370</v>
+      </c>
+      <c r="D1068" s="3">
+        <v>13968</v>
+      </c>
+      <c r="E1068" s="3">
+        <v>4613</v>
+      </c>
+      <c r="F1068" s="3">
+        <v>96</v>
+      </c>
+      <c r="G1068" s="3">
+        <v>676</v>
+      </c>
+      <c r="H1068" s="3">
+        <f t="shared" si="21"/>
+        <v>39723</v>
       </c>
     </row>
   </sheetData>
@@ -28366,13 +28393,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1067"/>
+  <dimension ref="A1:H1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1062" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1067" sqref="H1067"/>
+      <selection pane="bottomRight" activeCell="H1068" sqref="H1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55931,7 +55958,7 @@
         <v>3405</v>
       </c>
       <c r="H1066" s="3">
-        <f t="shared" ref="H1066:H1067" si="19">SUM(C1066:G1066)</f>
+        <f t="shared" ref="H1066:H1068" si="19">SUM(C1066:G1066)</f>
         <v>8004</v>
       </c>
     </row>
@@ -55960,6 +55987,33 @@
       <c r="H1067" s="3">
         <f t="shared" si="19"/>
         <v>6229</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1068" s="14">
+        <v>45760</v>
+      </c>
+      <c r="B1068" s="14">
+        <v>45766</v>
+      </c>
+      <c r="C1068" s="3">
+        <v>519</v>
+      </c>
+      <c r="D1068" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1068">
+        <v>27</v>
+      </c>
+      <c r="F1068" s="3">
+        <v>1226</v>
+      </c>
+      <c r="G1068" s="3">
+        <v>730</v>
+      </c>
+      <c r="H1068" s="3">
+        <f t="shared" si="19"/>
+        <v>2503</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC7F5B-66D7-4E08-8866-40CCA76BB123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E933B0-E494-4419-A169-518891F85672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1068"/>
+  <dimension ref="A1:I1069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1061" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1065" sqref="I1065"/>
+      <selection pane="bottomRight" activeCell="H1069" sqref="H1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28316,7 +28316,7 @@
         <v>867</v>
       </c>
       <c r="H1066" s="3">
-        <f t="shared" ref="H1066:H1068" si="21">SUM(C1066:G1066)</f>
+        <f t="shared" ref="H1066:H1069" si="21">SUM(C1066:G1066)</f>
         <v>48834</v>
       </c>
     </row>
@@ -28372,6 +28372,33 @@
       <c r="H1068" s="3">
         <f t="shared" si="21"/>
         <v>39723</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1069" s="14">
+        <v>45767</v>
+      </c>
+      <c r="B1069" s="14">
+        <v>45773</v>
+      </c>
+      <c r="C1069" s="3">
+        <v>29065</v>
+      </c>
+      <c r="D1069" s="3">
+        <v>15569</v>
+      </c>
+      <c r="E1069" s="3">
+        <v>7082</v>
+      </c>
+      <c r="F1069" s="3">
+        <v>121</v>
+      </c>
+      <c r="G1069" s="3">
+        <v>772</v>
+      </c>
+      <c r="H1069" s="3">
+        <f t="shared" si="21"/>
+        <v>52609</v>
       </c>
     </row>
   </sheetData>
@@ -28393,13 +28420,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1068"/>
+  <dimension ref="A1:H1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1062" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1065" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1068" sqref="H1068"/>
+      <selection pane="bottomRight" activeCell="I1069" sqref="I1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56014,6 +56041,33 @@
       <c r="H1068" s="3">
         <f t="shared" si="19"/>
         <v>2503</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1069" s="14">
+        <v>45767</v>
+      </c>
+      <c r="B1069" s="14">
+        <v>45773</v>
+      </c>
+      <c r="C1069" s="3">
+        <v>3327</v>
+      </c>
+      <c r="D1069" s="3">
+        <v>172</v>
+      </c>
+      <c r="E1069">
+        <v>81</v>
+      </c>
+      <c r="F1069" s="3">
+        <v>5090</v>
+      </c>
+      <c r="G1069" s="3">
+        <v>2895</v>
+      </c>
+      <c r="H1069" s="3">
+        <f t="shared" ref="H1069" si="20">SUM(C1069:G1069)</f>
+        <v>11565</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E933B0-E494-4419-A169-518891F85672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E220681-2BF5-4779-BE1C-51C480BB6A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1069"/>
+  <dimension ref="A1:I1070"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1069" sqref="H1069"/>
+      <selection pane="bottomRight" activeCell="H1070" sqref="H1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28399,6 +28399,33 @@
       <c r="H1069" s="3">
         <f t="shared" si="21"/>
         <v>52609</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1070" s="14">
+        <v>45774</v>
+      </c>
+      <c r="B1070" s="14">
+        <v>45780</v>
+      </c>
+      <c r="C1070" s="3">
+        <v>24116</v>
+      </c>
+      <c r="D1070" s="3">
+        <v>15455</v>
+      </c>
+      <c r="E1070" s="3">
+        <v>8293</v>
+      </c>
+      <c r="F1070" s="3">
+        <v>128</v>
+      </c>
+      <c r="G1070" s="3">
+        <v>649</v>
+      </c>
+      <c r="H1070" s="3">
+        <f t="shared" ref="H1070" si="22">SUM(C1070:G1070)</f>
+        <v>48641</v>
       </c>
     </row>
   </sheetData>
@@ -28420,13 +28447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1069"/>
+  <dimension ref="A1:H1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1065" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1069" sqref="I1069"/>
+      <selection pane="bottomRight" activeCell="I1070" sqref="I1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56066,8 +56093,35 @@
         <v>2895</v>
       </c>
       <c r="H1069" s="3">
-        <f t="shared" ref="H1069" si="20">SUM(C1069:G1069)</f>
+        <f t="shared" ref="H1069:H1070" si="20">SUM(C1069:G1069)</f>
         <v>11565</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1070" s="14">
+        <v>45774</v>
+      </c>
+      <c r="B1070" s="14">
+        <v>45780</v>
+      </c>
+      <c r="C1070" s="3">
+        <v>1614</v>
+      </c>
+      <c r="D1070" s="3">
+        <v>96</v>
+      </c>
+      <c r="E1070">
+        <v>4</v>
+      </c>
+      <c r="F1070" s="3">
+        <v>2687</v>
+      </c>
+      <c r="G1070" s="3">
+        <v>2123</v>
+      </c>
+      <c r="H1070" s="3">
+        <f t="shared" si="20"/>
+        <v>6524</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E220681-2BF5-4779-BE1C-51C480BB6A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B368B52-1C89-4491-BAAF-6D708488F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1070"/>
+  <dimension ref="A1:I1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1070" sqref="H1070"/>
+      <selection pane="bottomRight" activeCell="H1071" sqref="H1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28424,8 +28424,35 @@
         <v>649</v>
       </c>
       <c r="H1070" s="3">
-        <f t="shared" ref="H1070" si="22">SUM(C1070:G1070)</f>
+        <f t="shared" ref="H1070:H1071" si="22">SUM(C1070:G1070)</f>
         <v>48641</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1071" s="14">
+        <v>45781</v>
+      </c>
+      <c r="B1071" s="14">
+        <v>45787</v>
+      </c>
+      <c r="C1071" s="3">
+        <v>29049</v>
+      </c>
+      <c r="D1071" s="3">
+        <v>19417</v>
+      </c>
+      <c r="E1071" s="3">
+        <v>8260</v>
+      </c>
+      <c r="F1071" s="3">
+        <v>163</v>
+      </c>
+      <c r="G1071" s="3">
+        <v>828</v>
+      </c>
+      <c r="H1071" s="3">
+        <f t="shared" si="22"/>
+        <v>57717</v>
       </c>
     </row>
   </sheetData>
@@ -28447,13 +28474,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1070"/>
+  <dimension ref="A1:H1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1065" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1070" sqref="I1070"/>
+      <selection pane="bottomRight" activeCell="H1071" sqref="H1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56093,7 +56120,7 @@
         <v>2895</v>
       </c>
       <c r="H1069" s="3">
-        <f t="shared" ref="H1069:H1070" si="20">SUM(C1069:G1069)</f>
+        <f t="shared" ref="H1069:H1071" si="20">SUM(C1069:G1069)</f>
         <v>11565</v>
       </c>
     </row>
@@ -56122,6 +56149,30 @@
       <c r="H1070" s="3">
         <f t="shared" si="20"/>
         <v>6524</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1071" s="14">
+        <v>45781</v>
+      </c>
+      <c r="B1071" s="14">
+        <v>45787</v>
+      </c>
+      <c r="C1071" s="3">
+        <v>2565</v>
+      </c>
+      <c r="D1071" s="3">
+        <v>350</v>
+      </c>
+      <c r="F1071" s="3">
+        <v>1992</v>
+      </c>
+      <c r="G1071" s="3">
+        <v>1026</v>
+      </c>
+      <c r="H1071" s="3">
+        <f t="shared" si="20"/>
+        <v>5933</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B368B52-1C89-4491-BAAF-6D708488F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A022FF-7187-444B-8036-8BC635DD9150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1071"/>
+  <dimension ref="A1:I1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1071" sqref="H1071"/>
+      <selection pane="bottomRight" activeCell="J1066" sqref="J1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28424,7 +28424,7 @@
         <v>649</v>
       </c>
       <c r="H1070" s="3">
-        <f t="shared" ref="H1070:H1071" si="22">SUM(C1070:G1070)</f>
+        <f t="shared" ref="H1070:H1072" si="22">SUM(C1070:G1070)</f>
         <v>48641</v>
       </c>
     </row>
@@ -28453,6 +28453,33 @@
       <c r="H1071" s="3">
         <f t="shared" si="22"/>
         <v>57717</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1072" s="14">
+        <v>45788</v>
+      </c>
+      <c r="B1072" s="14">
+        <v>45794</v>
+      </c>
+      <c r="C1072" s="3">
+        <v>30182</v>
+      </c>
+      <c r="D1072" s="3">
+        <v>17555</v>
+      </c>
+      <c r="E1072" s="3">
+        <v>7660</v>
+      </c>
+      <c r="F1072" s="3">
+        <v>110</v>
+      </c>
+      <c r="G1072" s="3">
+        <v>648</v>
+      </c>
+      <c r="H1072" s="3">
+        <f t="shared" si="22"/>
+        <v>56155</v>
       </c>
     </row>
   </sheetData>
@@ -28474,13 +28501,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1071"/>
+  <dimension ref="A1:H1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1065" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1071" sqref="H1071"/>
+      <selection pane="bottomRight" activeCell="J1071" sqref="J1071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56120,7 +56147,7 @@
         <v>2895</v>
       </c>
       <c r="H1069" s="3">
-        <f t="shared" ref="H1069:H1071" si="20">SUM(C1069:G1069)</f>
+        <f t="shared" ref="H1069:H1072" si="20">SUM(C1069:G1069)</f>
         <v>11565</v>
       </c>
     </row>
@@ -56173,6 +56200,33 @@
       <c r="H1071" s="3">
         <f t="shared" si="20"/>
         <v>5933</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1072" s="14">
+        <v>45781</v>
+      </c>
+      <c r="B1072" s="14">
+        <v>45787</v>
+      </c>
+      <c r="C1072" s="3">
+        <v>1224</v>
+      </c>
+      <c r="D1072" s="3">
+        <v>280</v>
+      </c>
+      <c r="E1072">
+        <v>50</v>
+      </c>
+      <c r="F1072" s="3">
+        <v>7086</v>
+      </c>
+      <c r="G1072" s="3">
+        <v>3188</v>
+      </c>
+      <c r="H1072" s="3">
+        <f t="shared" si="20"/>
+        <v>11828</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A022FF-7187-444B-8036-8BC635DD9150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D616531-A88F-43EB-B593-252DC2EC5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOVINOS" sheetId="3" r:id="rId1"/>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1072"/>
+  <dimension ref="A1:I1073"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1066" sqref="J1066"/>
+      <selection pane="bottomRight" activeCell="H1073" sqref="H1073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28424,7 +28424,7 @@
         <v>649</v>
       </c>
       <c r="H1070" s="3">
-        <f t="shared" ref="H1070:H1072" si="22">SUM(C1070:G1070)</f>
+        <f t="shared" ref="H1070:H1073" si="22">SUM(C1070:G1070)</f>
         <v>48641</v>
       </c>
     </row>
@@ -28480,6 +28480,35 @@
       <c r="H1072" s="3">
         <f t="shared" si="22"/>
         <v>56155</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1073" s="14">
+        <f>+A1072+7</f>
+        <v>45795</v>
+      </c>
+      <c r="B1073" s="14">
+        <f>+B1072+7</f>
+        <v>45801</v>
+      </c>
+      <c r="C1073" s="3">
+        <v>23132</v>
+      </c>
+      <c r="D1073" s="3">
+        <v>17123</v>
+      </c>
+      <c r="E1073" s="3">
+        <v>6250</v>
+      </c>
+      <c r="F1073" s="3">
+        <v>185</v>
+      </c>
+      <c r="G1073" s="3">
+        <v>781</v>
+      </c>
+      <c r="H1073" s="3">
+        <f t="shared" si="22"/>
+        <v>47471</v>
       </c>
     </row>
   </sheetData>
@@ -28501,13 +28530,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1072"/>
+  <dimension ref="A1:H1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1065" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1068" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1071" sqref="J1071"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56147,7 +56176,7 @@
         <v>2895</v>
       </c>
       <c r="H1069" s="3">
-        <f t="shared" ref="H1069:H1072" si="20">SUM(C1069:G1069)</f>
+        <f t="shared" ref="H1069:H1073" si="20">SUM(C1069:G1069)</f>
         <v>11565</v>
       </c>
     </row>
@@ -56204,10 +56233,10 @@
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1072" s="14">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="B1072" s="14">
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="C1072" s="3">
         <v>1224</v>
@@ -56227,6 +56256,35 @@
       <c r="H1072" s="3">
         <f t="shared" si="20"/>
         <v>11828</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1073" s="14">
+        <f>+A1072+7</f>
+        <v>45795</v>
+      </c>
+      <c r="B1073" s="14">
+        <f>+B1072+7</f>
+        <v>45801</v>
+      </c>
+      <c r="C1073" s="3">
+        <v>960</v>
+      </c>
+      <c r="D1073" s="3">
+        <v>156</v>
+      </c>
+      <c r="E1073">
+        <v>55</v>
+      </c>
+      <c r="F1073" s="3">
+        <v>8144</v>
+      </c>
+      <c r="G1073" s="3">
+        <v>3734</v>
+      </c>
+      <c r="H1073" s="3">
+        <f t="shared" si="20"/>
+        <v>13049</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D616531-A88F-43EB-B593-252DC2EC5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7780E9-AB3B-4A20-BF5B-C7752829149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1073"/>
+  <dimension ref="A1:I1074"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1067" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1073" sqref="H1073"/>
+      <selection pane="bottomRight" activeCell="I1074" sqref="I1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28509,6 +28509,35 @@
       <c r="H1073" s="3">
         <f t="shared" si="22"/>
         <v>47471</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1074" s="14">
+        <f>+A1073+7</f>
+        <v>45802</v>
+      </c>
+      <c r="B1074" s="14">
+        <f>+B1073+7</f>
+        <v>45808</v>
+      </c>
+      <c r="C1074" s="3">
+        <v>21576</v>
+      </c>
+      <c r="D1074" s="3">
+        <v>16396</v>
+      </c>
+      <c r="E1074" s="3">
+        <v>5898</v>
+      </c>
+      <c r="F1074" s="3">
+        <v>245</v>
+      </c>
+      <c r="G1074" s="3">
+        <v>800</v>
+      </c>
+      <c r="H1074" s="3">
+        <f t="shared" ref="H1074" si="23">SUM(C1074:G1074)</f>
+        <v>44915</v>
       </c>
     </row>
   </sheetData>
@@ -28530,13 +28559,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1073"/>
+  <dimension ref="A1:H1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1068" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="I1074" sqref="I1074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56285,6 +56314,35 @@
       <c r="H1073" s="3">
         <f t="shared" si="20"/>
         <v>13049</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1074" s="14">
+        <f>+A1073+7</f>
+        <v>45802</v>
+      </c>
+      <c r="B1074" s="14">
+        <f>+B1073+7</f>
+        <v>45808</v>
+      </c>
+      <c r="C1074" s="3">
+        <v>338</v>
+      </c>
+      <c r="D1074" s="3">
+        <v>368</v>
+      </c>
+      <c r="E1074">
+        <v>57</v>
+      </c>
+      <c r="F1074" s="3">
+        <v>1693</v>
+      </c>
+      <c r="G1074" s="3">
+        <v>3078</v>
+      </c>
+      <c r="H1074" s="3">
+        <f t="shared" ref="H1074" si="21">SUM(C1074:G1074)</f>
+        <v>5534</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7780E9-AB3B-4A20-BF5B-C7752829149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACBE323-8551-43D1-B229-0B1276907814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1074"/>
+  <dimension ref="A1:I1075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1067" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1074" sqref="I1074"/>
+      <selection pane="bottomRight" activeCell="H1075" sqref="H1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28536,8 +28536,37 @@
         <v>800</v>
       </c>
       <c r="H1074" s="3">
-        <f t="shared" ref="H1074" si="23">SUM(C1074:G1074)</f>
+        <f t="shared" ref="H1074:H1075" si="23">SUM(C1074:G1074)</f>
         <v>44915</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1075" s="14">
+        <f>+A1074+7</f>
+        <v>45809</v>
+      </c>
+      <c r="B1075" s="14">
+        <f>+B1074+7</f>
+        <v>45815</v>
+      </c>
+      <c r="C1075" s="3">
+        <v>24973</v>
+      </c>
+      <c r="D1075" s="3">
+        <v>18547</v>
+      </c>
+      <c r="E1075" s="3">
+        <v>6910</v>
+      </c>
+      <c r="F1075" s="3">
+        <v>136</v>
+      </c>
+      <c r="G1075" s="3">
+        <v>564</v>
+      </c>
+      <c r="H1075" s="3">
+        <f t="shared" si="23"/>
+        <v>51130</v>
       </c>
     </row>
   </sheetData>
@@ -28559,13 +28588,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1074"/>
+  <dimension ref="A1:H1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1068" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I1074" sqref="I1074"/>
+      <selection pane="bottomRight" activeCell="H1075" sqref="H1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56343,6 +56372,32 @@
       <c r="H1074" s="3">
         <f t="shared" ref="H1074" si="21">SUM(C1074:G1074)</f>
         <v>5534</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1075" s="14">
+        <f>+A1074+7</f>
+        <v>45809</v>
+      </c>
+      <c r="B1075" s="14">
+        <f>+B1074+7</f>
+        <v>45815</v>
+      </c>
+      <c r="C1075" s="3">
+        <v>702</v>
+      </c>
+      <c r="D1075" s="3">
+        <v>345</v>
+      </c>
+      <c r="F1075" s="3">
+        <v>4138</v>
+      </c>
+      <c r="G1075" s="3">
+        <v>5050</v>
+      </c>
+      <c r="H1075" s="3">
+        <f t="shared" ref="H1075" si="22">SUM(C1075:G1075)</f>
+        <v>10235</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212D728-B485-49B6-A4BE-2EB2A905EB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7524A949-B6AC-4937-BCE2-DAEE84560DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1076"/>
+  <dimension ref="A1:I1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1070" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C1076" sqref="C1076"/>
+      <selection pane="bottomRight" activeCell="H1077" sqref="H1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1075" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1077" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28536,7 +28536,7 @@
         <v>800</v>
       </c>
       <c r="H1074" s="3">
-        <f t="shared" ref="H1074:H1076" si="24">SUM(C1074:G1074)</f>
+        <f t="shared" ref="H1074:H1077" si="24">SUM(C1074:G1074)</f>
         <v>44915</v>
       </c>
     </row>
@@ -28596,6 +28596,35 @@
       <c r="H1076" s="3">
         <f t="shared" si="24"/>
         <v>42586</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1077" s="14">
+        <f t="shared" si="23"/>
+        <v>45823</v>
+      </c>
+      <c r="B1077" s="14">
+        <f t="shared" si="23"/>
+        <v>45829</v>
+      </c>
+      <c r="C1077" s="3">
+        <v>20562</v>
+      </c>
+      <c r="D1077" s="3">
+        <v>16470</v>
+      </c>
+      <c r="E1077" s="3">
+        <v>6798</v>
+      </c>
+      <c r="F1077" s="3">
+        <v>182</v>
+      </c>
+      <c r="G1077" s="3">
+        <v>459</v>
+      </c>
+      <c r="H1077" s="3">
+        <f t="shared" si="24"/>
+        <v>44471</v>
       </c>
     </row>
   </sheetData>
@@ -28617,13 +28646,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1076"/>
+  <dimension ref="A1:H1077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1068" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1075" sqref="J1075"/>
+      <selection pane="bottomRight" activeCell="F1077" sqref="F1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56347,7 +56376,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1075" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1077" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -56425,7 +56454,7 @@
         <v>5050</v>
       </c>
       <c r="H1075" s="3">
-        <f t="shared" ref="H1075:H1076" si="23">SUM(C1075:G1075)</f>
+        <f t="shared" ref="H1075:H1077" si="23">SUM(C1075:G1075)</f>
         <v>10235</v>
       </c>
     </row>
@@ -56456,6 +56485,35 @@
       <c r="H1076" s="3">
         <f t="shared" si="23"/>
         <v>6655</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1077" s="14">
+        <f t="shared" si="21"/>
+        <v>45823</v>
+      </c>
+      <c r="B1077" s="14">
+        <f t="shared" si="21"/>
+        <v>45829</v>
+      </c>
+      <c r="C1077" s="3">
+        <v>768</v>
+      </c>
+      <c r="D1077" s="3">
+        <v>860</v>
+      </c>
+      <c r="E1077">
+        <v>61</v>
+      </c>
+      <c r="F1077" s="3">
+        <v>7134</v>
+      </c>
+      <c r="G1077" s="3">
+        <v>4040</v>
+      </c>
+      <c r="H1077" s="3">
+        <f t="shared" si="23"/>
+        <v>12863</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7524A949-B6AC-4937-BCE2-DAEE84560DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E4A9E-283A-415C-A475-E1FAFB0489B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1077"/>
+  <dimension ref="A1:I1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1070" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1077" sqref="H1077"/>
+      <selection pane="bottomRight" activeCell="H1078" sqref="H1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1077" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1078" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28536,7 +28536,7 @@
         <v>800</v>
       </c>
       <c r="H1074" s="3">
-        <f t="shared" ref="H1074:H1077" si="24">SUM(C1074:G1074)</f>
+        <f t="shared" ref="H1074:H1078" si="24">SUM(C1074:G1074)</f>
         <v>44915</v>
       </c>
     </row>
@@ -28626,6 +28626,38 @@
         <f t="shared" si="24"/>
         <v>44471</v>
       </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1078" s="14">
+        <f t="shared" si="23"/>
+        <v>45830</v>
+      </c>
+      <c r="B1078" s="14">
+        <f t="shared" si="23"/>
+        <v>45836</v>
+      </c>
+      <c r="C1078" s="3">
+        <v>21699</v>
+      </c>
+      <c r="D1078" s="3">
+        <v>17322</v>
+      </c>
+      <c r="E1078" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F1078" s="3">
+        <v>78</v>
+      </c>
+      <c r="G1078" s="3">
+        <v>775</v>
+      </c>
+      <c r="H1078" s="3">
+        <f t="shared" si="24"/>
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C1079" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -28646,13 +28678,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1077"/>
+  <dimension ref="A1:H1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1068" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1074" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F1077" sqref="F1077"/>
+      <selection pane="bottomRight" activeCell="H1078" sqref="H1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56376,7 +56408,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1077" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1078" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -56454,7 +56486,7 @@
         <v>5050</v>
       </c>
       <c r="H1075" s="3">
-        <f t="shared" ref="H1075:H1077" si="23">SUM(C1075:G1075)</f>
+        <f t="shared" ref="H1075:H1078" si="23">SUM(C1075:G1075)</f>
         <v>10235</v>
       </c>
     </row>
@@ -56514,6 +56546,35 @@
       <c r="H1077" s="3">
         <f t="shared" si="23"/>
         <v>12863</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1078" s="14">
+        <f t="shared" si="21"/>
+        <v>45830</v>
+      </c>
+      <c r="B1078" s="14">
+        <f t="shared" si="21"/>
+        <v>45836</v>
+      </c>
+      <c r="C1078" s="3">
+        <v>1205</v>
+      </c>
+      <c r="D1078" s="3">
+        <v>782</v>
+      </c>
+      <c r="E1078">
+        <v>26</v>
+      </c>
+      <c r="F1078" s="3">
+        <v>4671</v>
+      </c>
+      <c r="G1078" s="3">
+        <v>2396</v>
+      </c>
+      <c r="H1078" s="3">
+        <f t="shared" si="23"/>
+        <v>9080</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E4A9E-283A-415C-A475-E1FAFB0489B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ED63E-400D-47F0-A8B9-01E11C6BB019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -680,10 +680,10 @@
   <dimension ref="A1:I1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1070" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1073" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1078" sqref="H1078"/>
+      <selection pane="bottomRight" activeCell="H1079" sqref="H1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1078" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1079" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28536,7 +28536,7 @@
         <v>800</v>
       </c>
       <c r="H1074" s="3">
-        <f t="shared" ref="H1074:H1078" si="24">SUM(C1074:G1074)</f>
+        <f t="shared" ref="H1074:H1079" si="24">SUM(C1074:G1074)</f>
         <v>44915</v>
       </c>
     </row>
@@ -28657,7 +28657,33 @@
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1079" s="3"/>
+      <c r="A1079" s="14">
+        <f t="shared" si="23"/>
+        <v>45837</v>
+      </c>
+      <c r="B1079" s="14">
+        <f t="shared" si="23"/>
+        <v>45843</v>
+      </c>
+      <c r="C1079" s="3">
+        <v>20712</v>
+      </c>
+      <c r="D1079" s="3">
+        <v>15950</v>
+      </c>
+      <c r="E1079" s="3">
+        <v>6873</v>
+      </c>
+      <c r="F1079" s="3">
+        <v>124</v>
+      </c>
+      <c r="G1079" s="3">
+        <v>566</v>
+      </c>
+      <c r="H1079" s="3">
+        <f t="shared" si="24"/>
+        <v>44225</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -28678,13 +28704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1078"/>
+  <dimension ref="A1:H1079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1074" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1078" sqref="H1078"/>
+      <selection pane="bottomRight" activeCell="G1080" sqref="G1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56408,7 +56434,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1078" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1079" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -56486,7 +56512,7 @@
         <v>5050</v>
       </c>
       <c r="H1075" s="3">
-        <f t="shared" ref="H1075:H1078" si="23">SUM(C1075:G1075)</f>
+        <f t="shared" ref="H1075:H1079" si="23">SUM(C1075:G1075)</f>
         <v>10235</v>
       </c>
     </row>
@@ -56575,6 +56601,35 @@
       <c r="H1078" s="3">
         <f t="shared" si="23"/>
         <v>9080</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1079" s="14">
+        <f t="shared" si="21"/>
+        <v>45837</v>
+      </c>
+      <c r="B1079" s="14">
+        <f t="shared" si="21"/>
+        <v>45843</v>
+      </c>
+      <c r="C1079" s="3">
+        <v>760</v>
+      </c>
+      <c r="D1079" s="3">
+        <v>850</v>
+      </c>
+      <c r="E1079">
+        <v>45</v>
+      </c>
+      <c r="F1079" s="3">
+        <v>3430</v>
+      </c>
+      <c r="G1079" s="3">
+        <v>2294</v>
+      </c>
+      <c r="H1079" s="3">
+        <f t="shared" si="23"/>
+        <v>7379</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ED63E-400D-47F0-A8B9-01E11C6BB019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF98DA2-B39B-4DC5-A6D0-61E39B667302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1079"/>
+  <dimension ref="A1:I1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1073" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1079" sqref="H1079"/>
+      <selection pane="bottomRight" activeCell="H1081" sqref="H1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1079" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1080" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28536,7 +28536,7 @@
         <v>800</v>
       </c>
       <c r="H1074" s="3">
-        <f t="shared" ref="H1074:H1079" si="24">SUM(C1074:G1074)</f>
+        <f t="shared" ref="H1074:H1080" si="24">SUM(C1074:G1074)</f>
         <v>44915</v>
       </c>
     </row>
@@ -28683,6 +28683,34 @@
       <c r="H1079" s="3">
         <f t="shared" si="24"/>
         <v>44225</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1080" s="14">
+        <f t="shared" si="23"/>
+        <v>45844</v>
+      </c>
+      <c r="B1080" s="14">
+        <f t="shared" si="23"/>
+        <v>45850</v>
+      </c>
+      <c r="C1080" s="3">
+        <v>19735</v>
+      </c>
+      <c r="D1080" s="3">
+        <v>14310</v>
+      </c>
+      <c r="E1080" s="3">
+        <v>6452</v>
+      </c>
+      <c r="F1080" s="3">
+        <v>146</v>
+      </c>
+      <c r="G1080" s="3">
+        <v>524</v>
+      </c>
+      <c r="H1080" s="3">
+        <v>41166</v>
       </c>
     </row>
   </sheetData>
@@ -28704,13 +28732,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1079"/>
+  <dimension ref="A1:H1080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1074" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1077" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G1080" sqref="G1080"/>
+      <selection pane="bottomRight" activeCell="I1080" sqref="I1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56434,7 +56462,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1079" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1080" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -56512,7 +56540,7 @@
         <v>5050</v>
       </c>
       <c r="H1075" s="3">
-        <f t="shared" ref="H1075:H1079" si="23">SUM(C1075:G1075)</f>
+        <f t="shared" ref="H1075:H1080" si="23">SUM(C1075:G1075)</f>
         <v>10235</v>
       </c>
     </row>
@@ -56630,6 +56658,35 @@
       <c r="H1079" s="3">
         <f t="shared" si="23"/>
         <v>7379</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1080" s="14">
+        <f t="shared" si="21"/>
+        <v>45844</v>
+      </c>
+      <c r="B1080" s="14">
+        <f t="shared" si="21"/>
+        <v>45850</v>
+      </c>
+      <c r="C1080" s="3">
+        <v>1534</v>
+      </c>
+      <c r="D1080" s="3">
+        <v>707</v>
+      </c>
+      <c r="E1080">
+        <v>85</v>
+      </c>
+      <c r="F1080" s="3">
+        <v>6128</v>
+      </c>
+      <c r="G1080" s="3">
+        <v>3052</v>
+      </c>
+      <c r="H1080" s="3">
+        <f t="shared" si="23"/>
+        <v>11506</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80AF59-1692-4F49-A34F-FEDAB3C46DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC953A5-2F7D-43CC-8B9E-1269ACF3F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1081"/>
+  <dimension ref="A1:I1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1073" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1081" sqref="J1081"/>
+      <selection pane="bottomRight" activeCell="H1082" sqref="H1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1081" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1082" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28741,6 +28741,35 @@
       <c r="H1081" s="3">
         <f t="shared" si="24"/>
         <v>40051</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1082" s="14">
+        <f t="shared" si="23"/>
+        <v>45858</v>
+      </c>
+      <c r="B1082" s="14">
+        <f t="shared" si="23"/>
+        <v>45864</v>
+      </c>
+      <c r="C1082" s="3">
+        <v>24974</v>
+      </c>
+      <c r="D1082" s="3">
+        <v>17537</v>
+      </c>
+      <c r="E1082" s="3">
+        <v>7607</v>
+      </c>
+      <c r="F1082" s="3">
+        <v>112</v>
+      </c>
+      <c r="G1082" s="3">
+        <v>701</v>
+      </c>
+      <c r="H1082" s="3">
+        <f t="shared" ref="H1082" si="27">SUM(C1082:G1082)</f>
+        <v>50931</v>
       </c>
     </row>
   </sheetData>
@@ -28762,13 +28791,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1081"/>
+  <dimension ref="A1:H1082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1074" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1079" sqref="J1079"/>
+      <selection pane="bottomRight" activeCell="H1082" sqref="H1082"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56492,7 +56521,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1081" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1082" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -56741,8 +56770,37 @@
         <v>1298</v>
       </c>
       <c r="H1081" s="3">
-        <f t="shared" ref="H1081" si="26">SUM(C1081:G1081)</f>
+        <f t="shared" ref="H1081:H1082" si="26">SUM(C1081:G1081)</f>
         <v>8236</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1082" s="14">
+        <f t="shared" si="21"/>
+        <v>45858</v>
+      </c>
+      <c r="B1082" s="14">
+        <f t="shared" si="21"/>
+        <v>45864</v>
+      </c>
+      <c r="C1082" s="3">
+        <v>1338</v>
+      </c>
+      <c r="D1082" s="3">
+        <v>357</v>
+      </c>
+      <c r="E1082">
+        <v>6</v>
+      </c>
+      <c r="F1082" s="3">
+        <v>6220</v>
+      </c>
+      <c r="G1082" s="3">
+        <v>3539</v>
+      </c>
+      <c r="H1082" s="3">
+        <f t="shared" si="26"/>
+        <v>11460</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E6923-9831-41F3-B5AD-058EFAB8F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623C486-E365-4167-A935-BD6CE77F08E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C1078" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1084" sqref="H1084"/>
+      <selection pane="bottomRight" activeCell="H1085" sqref="H1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1084" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1085" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28831,7 +28831,33 @@
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1085" s="3"/>
+      <c r="A1085" s="14">
+        <f t="shared" si="23"/>
+        <v>45879</v>
+      </c>
+      <c r="B1085" s="14">
+        <f t="shared" si="23"/>
+        <v>45885</v>
+      </c>
+      <c r="C1085" s="3">
+        <v>25127</v>
+      </c>
+      <c r="D1085" s="3">
+        <v>12628</v>
+      </c>
+      <c r="E1085" s="3">
+        <v>7518</v>
+      </c>
+      <c r="F1085" s="3">
+        <v>98</v>
+      </c>
+      <c r="G1085" s="3">
+        <v>618</v>
+      </c>
+      <c r="H1085" s="3">
+        <f t="shared" ref="H1085" si="28">SUM(C1085:G1085)</f>
+        <v>45989</v>
+      </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1086" s="3"/>
@@ -29101,13 +29127,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1084"/>
+  <dimension ref="A1:H1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1077" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1080" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D1086" sqref="D1086"/>
+      <selection pane="bottomRight" activeCell="H1085" sqref="H1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56831,7 +56857,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1084" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1085" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -57167,8 +57193,37 @@
         <v>1578</v>
       </c>
       <c r="H1084" s="3">
-        <f t="shared" ref="H1084" si="27">SUM(C1084:G1084)</f>
+        <f t="shared" ref="H1084:H1085" si="27">SUM(C1084:G1084)</f>
         <v>6346</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1085" s="14">
+        <f t="shared" si="21"/>
+        <v>45879</v>
+      </c>
+      <c r="B1085" s="14">
+        <f t="shared" si="21"/>
+        <v>45885</v>
+      </c>
+      <c r="C1085" s="3">
+        <v>2455</v>
+      </c>
+      <c r="D1085" s="3">
+        <v>2401</v>
+      </c>
+      <c r="E1085">
+        <v>103</v>
+      </c>
+      <c r="F1085" s="3">
+        <v>7349</v>
+      </c>
+      <c r="G1085" s="3">
+        <v>3506</v>
+      </c>
+      <c r="H1085" s="3">
+        <f t="shared" si="27"/>
+        <v>15814</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623C486-E365-4167-A935-BD6CE77F08E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712951B-4F34-444D-A2E3-55248B0BC285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,10 +680,10 @@
   <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1078" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1081" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1085" sqref="H1085"/>
+      <selection pane="bottomRight" activeCell="H1086" sqref="H1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1085" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1086" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28855,12 +28855,38 @@
         <v>618</v>
       </c>
       <c r="H1085" s="3">
-        <f t="shared" ref="H1085" si="28">SUM(C1085:G1085)</f>
+        <f t="shared" ref="H1085:H1086" si="28">SUM(C1085:G1085)</f>
         <v>45989</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1086" s="3"/>
+      <c r="A1086" s="14">
+        <f t="shared" si="23"/>
+        <v>45886</v>
+      </c>
+      <c r="B1086" s="14">
+        <f t="shared" si="23"/>
+        <v>45892</v>
+      </c>
+      <c r="C1086" s="3">
+        <v>23567</v>
+      </c>
+      <c r="D1086" s="3">
+        <v>13836</v>
+      </c>
+      <c r="E1086" s="3">
+        <v>5764</v>
+      </c>
+      <c r="F1086" s="3">
+        <v>222</v>
+      </c>
+      <c r="G1086" s="3">
+        <v>446</v>
+      </c>
+      <c r="H1086" s="3">
+        <f t="shared" si="28"/>
+        <v>43835</v>
+      </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1087" s="3"/>
@@ -29127,13 +29153,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1085"/>
+  <dimension ref="A1:H1086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C1080" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C1083" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1085" sqref="H1085"/>
+      <selection pane="bottomRight" activeCell="H1086" sqref="H1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56857,7 +56883,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1085" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1086" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -57193,7 +57219,7 @@
         <v>1578</v>
       </c>
       <c r="H1084" s="3">
-        <f t="shared" ref="H1084:H1085" si="27">SUM(C1084:G1084)</f>
+        <f t="shared" ref="H1084:H1086" si="27">SUM(C1084:G1084)</f>
         <v>6346</v>
       </c>
     </row>
@@ -57224,6 +57250,35 @@
       <c r="H1085" s="3">
         <f t="shared" si="27"/>
         <v>15814</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1086" s="14">
+        <f t="shared" si="21"/>
+        <v>45886</v>
+      </c>
+      <c r="B1086" s="14">
+        <f t="shared" si="21"/>
+        <v>45892</v>
+      </c>
+      <c r="C1086" s="3">
+        <v>875</v>
+      </c>
+      <c r="D1086" s="3">
+        <v>1655</v>
+      </c>
+      <c r="E1086">
+        <v>239</v>
+      </c>
+      <c r="F1086" s="3">
+        <v>8932</v>
+      </c>
+      <c r="G1086" s="3">
+        <v>4645</v>
+      </c>
+      <c r="H1086" s="3">
+        <f t="shared" si="27"/>
+        <v>16346</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712951B-4F34-444D-A2E3-55248B0BC285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C0ED5-8E33-4072-BB48-B402E295F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C1081" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1086" sqref="H1086"/>
+      <selection pane="bottomRight" activeCell="H1087" sqref="H1087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1086" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1087" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28889,7 +28889,33 @@
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1087" s="3"/>
+      <c r="A1087" s="14">
+        <f t="shared" si="23"/>
+        <v>45893</v>
+      </c>
+      <c r="B1087" s="14">
+        <f t="shared" si="23"/>
+        <v>45899</v>
+      </c>
+      <c r="C1087" s="3">
+        <v>18674</v>
+      </c>
+      <c r="D1087" s="3">
+        <v>12982</v>
+      </c>
+      <c r="E1087" s="3">
+        <v>7180</v>
+      </c>
+      <c r="F1087" s="3">
+        <v>107</v>
+      </c>
+      <c r="G1087" s="3">
+        <v>402</v>
+      </c>
+      <c r="H1087" s="3">
+        <f t="shared" ref="H1087" si="29">SUM(C1087:G1087)</f>
+        <v>39345</v>
+      </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1088" s="3"/>
@@ -29153,13 +29179,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1086"/>
+  <dimension ref="A1:H1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1083" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1086" sqref="H1086"/>
+      <selection pane="bottomRight" activeCell="H1087" sqref="H1087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56883,7 +56909,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1086" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1087" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -57279,6 +57305,35 @@
       <c r="H1086" s="3">
         <f t="shared" si="27"/>
         <v>16346</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1087" s="14">
+        <f t="shared" si="21"/>
+        <v>45893</v>
+      </c>
+      <c r="B1087" s="14">
+        <f t="shared" si="21"/>
+        <v>45899</v>
+      </c>
+      <c r="C1087" s="3">
+        <v>2279</v>
+      </c>
+      <c r="D1087" s="3">
+        <v>746</v>
+      </c>
+      <c r="E1087">
+        <v>90</v>
+      </c>
+      <c r="F1087" s="3">
+        <v>9610</v>
+      </c>
+      <c r="G1087" s="3">
+        <v>4291</v>
+      </c>
+      <c r="H1087" s="3">
+        <f t="shared" ref="H1087" si="28">SUM(C1087:G1087)</f>
+        <v>17016</v>
       </c>
     </row>
   </sheetData>

--- a/econuy_extras/retrieval/faena.xlsx
+++ b/econuy_extras/retrieval/faena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GIF\VAS\PUBLICACIONES\INFORME SEMANAL FAENA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C0ED5-8E33-4072-BB48-B402E295F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316B49F-0C16-4CAF-B820-6105AEB423E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C1081" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1087" sqref="H1087"/>
+      <selection pane="bottomRight" activeCell="H1088" sqref="H1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28484,7 +28484,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1087" si="23">+A1072+7</f>
+        <f t="shared" ref="A1073:B1088" si="23">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -28913,12 +28913,38 @@
         <v>402</v>
       </c>
       <c r="H1087" s="3">
-        <f t="shared" ref="H1087" si="29">SUM(C1087:G1087)</f>
+        <f t="shared" ref="H1087:H1088" si="29">SUM(C1087:G1087)</f>
         <v>39345</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1088" s="3"/>
+      <c r="A1088" s="14">
+        <f t="shared" si="23"/>
+        <v>45900</v>
+      </c>
+      <c r="B1088" s="14">
+        <f t="shared" si="23"/>
+        <v>45906</v>
+      </c>
+      <c r="C1088" s="3">
+        <v>22589</v>
+      </c>
+      <c r="D1088" s="3">
+        <v>12007</v>
+      </c>
+      <c r="E1088" s="3">
+        <v>7519</v>
+      </c>
+      <c r="F1088" s="3">
+        <v>156</v>
+      </c>
+      <c r="G1088" s="3">
+        <v>653</v>
+      </c>
+      <c r="H1088" s="3">
+        <f t="shared" si="29"/>
+        <v>42924</v>
+      </c>
     </row>
     <row r="1089" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1089" s="3"/>
@@ -29179,13 +29205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1087"/>
+  <dimension ref="A1:H1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C1083" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1087" sqref="H1087"/>
+      <selection pane="bottomRight" activeCell="H1088" sqref="H1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56909,7 +56935,7 @@
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" s="14">
-        <f t="shared" ref="A1073:B1087" si="21">+A1072+7</f>
+        <f t="shared" ref="A1073:B1088" si="21">+A1072+7</f>
         <v>45795</v>
       </c>
       <c r="B1073" s="14">
@@ -57332,8 +57358,37 @@
         <v>4291</v>
       </c>
       <c r="H1087" s="3">
-        <f t="shared" ref="H1087" si="28">SUM(C1087:G1087)</f>
+        <f t="shared" ref="H1087:H1088" si="28">SUM(C1087:G1087)</f>
         <v>17016</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1088" s="14">
+        <f t="shared" si="21"/>
+        <v>45900</v>
+      </c>
+      <c r="B1088" s="14">
+        <f t="shared" si="21"/>
+        <v>45906</v>
+      </c>
+      <c r="C1088" s="3">
+        <v>282</v>
+      </c>
+      <c r="D1088" s="3">
+        <v>272</v>
+      </c>
+      <c r="E1088">
+        <v>8</v>
+      </c>
+      <c r="F1088" s="3">
+        <v>5190</v>
+      </c>
+      <c r="G1088" s="3">
+        <v>2386</v>
+      </c>
+      <c r="H1088" s="3">
+        <f t="shared" si="28"/>
+        <v>8138</v>
       </c>
     </row>
   </sheetData>
